--- a/DOM_Banner/output/dept_banner/Michael Durando_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michael Durando_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,351 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Michael Durando, Sanjay V. Menghani, Jessica L. Baumann, Danny G Robles, Tovah Day, Cyrus Vaziri, Aaron J. Scott</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220734165</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Four-Year Disease-Free Remission in a Patient With POLE Mutation–Associated Colorectal Cancer Treated Using Anti–PD-1 Therapy</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5043603564", "https://openalex.org/A5032030376", "https://openalex.org/A5011100848", "https://openalex.org/A5011431002", "https://openalex.org/A5027855271", "https://openalex.org/A5046474582", "https://openalex.org/A5025510544"), au_display_name = c("Michael Durando", "Sanjay V. Menghani", "Jessica L. Baumann", "Danny G Robles", "Tovah Day", "Cyrus Vaziri", "Aaron J. Scott"), au_orcid = c(NA, "https://orcid.org/0000-0003-2056-1879", NA, NA, "https://orcid.org/0000-0003-3894-1407", 
-"https://orcid.org/0000-0002-3081-8685", "https://orcid.org/0000-0002-0301-3072"), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center.", "Department of Immunobiology, and.", "5Department of Pathology, University of Arizona College of Medicine—Tucson, Tucson, Arizona;; 6Now with Roche Tissue Diagnostics, Tucson, Arizona;", 
-"Banner-University Medical Center Tucson, Tucson, Arizona.; Department of Surgery, University of Arizona College of Medicine-Tucson, Tucson, Arizona.", "Department of Biology, Northeastern University, Boston, Massachusetts; and.", "Department of Pathology and Laboratory Medicine, University of North Carolina, Chapel Hill, North Carolina.", "Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center."
-), institution_id = c("https://openalex.org/I4210124665", NA, "https://openalex.org/I138006243", "https://openalex.org/I4210124665", "https://openalex.org/I12912129", "https://openalex.org/I114027177", "https://openalex.org/I4210124665"), institution_display_name = c("Banner - University Medical Center Tucson", NA, "University of Arizona", "Banner - University Medical Center Tucson", "Northeastern University", "University of North Carolina at Chapel Hill", "Banner - University Medical Center Tucson"
-), institution_ror = c("https://ror.org/02xbk5j62", NA, "https://ror.org/03m2x1q45", "https://ror.org/02xbk5j62", "https://ror.org/04t5xt781", "https://ror.org/0130frc33", "https://ror.org/02xbk5j62"), institution_country_code = c("US", NA, "US", "US", "US", "US", "US"), institution_type = c("healthcare", NA, "education", "healthcare", "education", "education", "healthcare"), institution_lineage = c("https://openalex.org/I4210124665", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
-"https://openalex.org/I4210124665", "https://openalex.org/I12912129", "https://openalex.org/I114027177, https://openalex.org/I4210158053", "https://openalex.org/I4210124665"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The stability of the human genome depends upon a delicate balance between replication by high- and low-fidelity DNA polymerases. Aberrant replication by error-prone polymerases or loss of function of high-fidelity polymerases predisposes to genetic instability and, in turn, cancer. DNA polymerase epsilon (Pol ε) is a high-fidelity, processive polymerase that is responsible for the majority of leading strand synthesis, and mutations in Pol ε have been increasingly associated with various human malignancies. The clinical significance of Pol ε mutations, including how and whether they should influence management decisions, remains poorly understood. In this report, we describe a 24-year-old man with an aggressive stage IV high-grade, poorly differentiated colon carcinoma who experienced a dramatic response to single-agent checkpoint inhibitor immunotherapy after rapidly progressing on standard chemotherapy. His response was complete and durable and has been maintained for more than 48 months. Genetic testing revealed a P286R mutation in the endonuclease domain of POLE and an elevated tumor mutational burden of 126 mutations per megabase, both of which have been previously associated with response to immunotherapy. Interestingly, tumor staining for PD-L1 was negative. This case study highlights the importance of genetic profiling of both early and late-stage cancers, the clinical significance of POLE mutations, and how the interplay between genetic instability and immune-checkpoint blockade can impact clinical decision-making.</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>Journal of The National Comprehensive Cancer Network</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Journal of The National Comprehensive Cancer Network</t>
+          <t>National Comprehensive Cancer</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S935620192</t>
+          <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>National Comprehensive Cancer</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1540-1405</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/35276675</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>218</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4220734165</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4220734165", doi = "https://doi.org/10.6004/jnccn.2021.7115", pmid = "https://pubmed.ncbi.nlm.nih.gov/35276675")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.6004/jnccn.2021.7115</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1075451730", "https://openalex.org/W1604315162", "https://openalex.org/W1611375148", "https://openalex.org/W1630303999", "https://openalex.org/W1993052102", "https://openalex.org/W2040871793", "https://openalex.org/W2041440766", "https://openalex.org/W2053213954", "https://openalex.org/W2055495389", "https://openalex.org/W2063003311", "https://openalex.org/W2074127742", "https://openalex.org/W2093297340", "https://openalex.org/W2096908869", "https://openalex.org/W2123549011", 
-"https://openalex.org/W2133606537", "https://openalex.org/W2147899637", "https://openalex.org/W2159999673", "https://openalex.org/W2160609925", "https://openalex.org/W2162771356", "https://openalex.org/W2238237545", "https://openalex.org/W2252367299", "https://openalex.org/W2262414037", "https://openalex.org/W2292067704", "https://openalex.org/W2411897150", "https://openalex.org/W2479782038", "https://openalex.org/W2481467115", "https://openalex.org/W2488353409", "https://openalex.org/W2520542459", 
-"https://openalex.org/W2593200928", "https://openalex.org/W2767034994", "https://openalex.org/W2785888115", "https://openalex.org/W2788377084", "https://openalex.org/W2887491347", "https://openalex.org/W2912859943", "https://openalex.org/W2914487464", "https://openalex.org/W2980766782", "https://openalex.org/W3010538789", "https://openalex.org/W3033185003", "https://openalex.org/W3042479948", "https://openalex.org/W3081287960", "https://openalex.org/W3133752468")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2981371073", "https://openalex.org/W1987706726", "https://openalex.org/W4312174640", "https://openalex.org/W2078763660", "https://openalex.org/W3126879016", "https://openalex.org/W2099952417", "https://openalex.org/W2092777970", "https://openalex.org/W2035185296", "https://openalex.org/W2914989599", "https://openalex.org/W3031782102")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Michael Durando_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Michael Durando_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center.; Department of Immunobiology, and.; 5Department of Pathology, University of Arizona College of Medicine—Tucson, Tucson, Arizona;; 6Now with Roche Tissue Diagnostics, Tucson, Arizona;; Banner-University Medical Center Tucson, Tucson, Arizona.; Department of Surgery, University of Arizona College of Medicine-Tucson, Tucson, Arizona.; Department of Biology, Northeastern University, Boston, Massachusetts; and.; Department of Pathology and Laboratory Medicine, University of North Carolina, Chapel Hill, North Carolina.; Banner-University Medical Center Tucson, Tucson, Arizona.; Division of Hematology and Oncology, Department of Medicine.; University of Arizona Cancer Center.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4220734165</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Four-Year Disease-Free Remission in a Patient With POLE Mutation–Associated Colorectal Cancer Treated Using Anti–PD-1 Therapy</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of The National Comprehensive Cancer Network</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>National Comprehensive Cancer</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35276675</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.6004/jnccn.2021.7115</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
